--- a/ProgramarePentruStiinteAplicate1/Prezenta.xlsx
+++ b/ProgramarePentruStiinteAplicate1/Prezenta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remus\Documents\GitHub\Geoinformatica_Promotia_2025_2028\ProgramarePentruStiinteAplicate1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87E0C18-6FEC-4E1F-B1E6-C072E6472626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F0468E-615B-4A11-BEAB-BC31F735BC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Prenume Nume</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Claudiu Druța</t>
   </si>
   <si>
-    <t>Daniela Cionca (Maria)</t>
-  </si>
-  <si>
     <t>Sorin Fechete</t>
   </si>
   <si>
@@ -109,6 +106,36 @@
   </si>
   <si>
     <t>Amanda Hajdu</t>
+  </si>
+  <si>
+    <t>Silvia Naghi</t>
+  </si>
+  <si>
+    <t>Raul Andrei</t>
+  </si>
+  <si>
+    <t>Levente Nagy</t>
+  </si>
+  <si>
+    <t>Mark Pop</t>
+  </si>
+  <si>
+    <t>Alessandro Vereș-Pop</t>
+  </si>
+  <si>
+    <t>Luca Șeicaru</t>
+  </si>
+  <si>
+    <t>Attila Bunta</t>
+  </si>
+  <si>
+    <t>Daniela Cionca (Mărie)</t>
+  </si>
+  <si>
+    <t>Victor Lazăr</t>
+  </si>
+  <si>
+    <t>Codruț Avram</t>
   </si>
 </sst>
 </file>
@@ -652,7 +679,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -722,10 +749,10 @@
     </row>
     <row r="3" spans="2:19">
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -742,21 +769,21 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="8">
         <f>SUM(C3:P3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="8">
-        <f t="shared" ref="Q4:Q52" si="0">SUM(C4:P4)</f>
+        <f>SUM(C4:P4)</f>
         <v>1</v>
       </c>
       <c r="R4" s="9"/>
@@ -764,14 +791,14 @@
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(C5:P5)</f>
         <v>1</v>
       </c>
       <c r="R5" s="9"/>
@@ -779,14 +806,14 @@
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(C6:P6)</f>
         <v>1</v>
       </c>
       <c r="R6" s="9"/>
@@ -794,29 +821,29 @@
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(C7:P7)</f>
+        <v>2</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="10"/>
     </row>
     <row r="8" spans="2:19">
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C8" s="9">
         <v>1</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(C8:P8)</f>
         <v>1</v>
       </c>
       <c r="R8" s="9"/>
@@ -824,44 +851,44 @@
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(C9:P9)</f>
+        <v>2</v>
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="10"/>
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(C10:P10)</f>
+        <v>2</v>
       </c>
       <c r="R10" s="9"/>
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="2:19">
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(C11:P11)</f>
         <v>1</v>
       </c>
       <c r="R11" s="9"/>
@@ -869,114 +896,150 @@
     </row>
     <row r="12" spans="2:19">
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(C12:P12)</f>
+        <v>2</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="10"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="4"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C13:P13)</f>
+        <v>1</v>
       </c>
       <c r="R13" s="9"/>
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="4"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C14:P14)</f>
+        <v>2</v>
       </c>
       <c r="R14" s="9"/>
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="4"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C15:P15)</f>
+        <v>2</v>
       </c>
       <c r="R15" s="9"/>
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="4"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C16:P16)</f>
+        <v>2</v>
       </c>
       <c r="R16" s="9"/>
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="4"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
       <c r="P17" s="10"/>
       <c r="Q17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C17:P17)</f>
+        <v>1</v>
       </c>
       <c r="R17" s="9"/>
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="4"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C18:P18)</f>
+        <v>2</v>
       </c>
       <c r="R18" s="9"/>
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="4"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C19:P19)</f>
+        <v>2</v>
       </c>
       <c r="R19" s="9"/>
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="4"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C20:P20)</f>
+        <v>1</v>
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="10"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="4"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
       <c r="P21" s="10"/>
       <c r="Q21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C21:P21)</f>
+        <v>1</v>
       </c>
       <c r="R21" s="9"/>
       <c r="S21" s="10"/>
@@ -986,7 +1049,7 @@
       <c r="C22" s="9"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(C22:P22)</f>
         <v>0</v>
       </c>
       <c r="R22" s="9"/>
@@ -997,7 +1060,7 @@
       <c r="C23" s="9"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q23:Q52" si="0">SUM(C23:P23)</f>
         <v>0</v>
       </c>
       <c r="R23" s="9"/>
@@ -1335,8 +1398,8 @@
       <c r="S52" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:S52">
-    <sortCondition ref="B52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:S22">
+    <sortCondition ref="B3:B22"/>
   </sortState>
   <conditionalFormatting sqref="Q3:Q52">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">

--- a/ProgramarePentruStiinteAplicate1/Prezenta.xlsx
+++ b/ProgramarePentruStiinteAplicate1/Prezenta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remus\Documents\GitHub\Geoinformatica_Promotia_2025_2028\ProgramarePentruStiinteAplicate1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F0468E-615B-4A11-BEAB-BC31F735BC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FFD0BE-69D1-44BF-960D-D037647CAD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Prenume Nume</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Prezențe</t>
-  </si>
-  <si>
-    <t>Proiect</t>
   </si>
   <si>
     <t>Nota</t>
@@ -673,25 +670,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:S52"/>
+  <dimension ref="B2:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:C21"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="3" customWidth="1"/>
-    <col min="3" max="17" width="9.140625" style="3"/>
-    <col min="18" max="18" width="31.7109375" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:18">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,18 +738,17 @@
       <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19">
+    </row>
+    <row r="3" spans="2:18">
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -768,613 +762,603 @@
       <c r="O3" s="6"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="8">
-        <f>SUM(C3:P3)</f>
-        <v>2</v>
-      </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="2:19">
+        <f t="shared" ref="Q3:Q22" si="0">SUM(C3:P3)</f>
+        <v>3</v>
+      </c>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="2:18">
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="8">
-        <f>SUM(C4:P4)</f>
-        <v>1</v>
-      </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="10"/>
-    </row>
-    <row r="5" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="2:18">
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="8">
-        <f>SUM(C5:P5)</f>
-        <v>1</v>
-      </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="10"/>
-    </row>
-    <row r="6" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="2:18">
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="8">
-        <f>SUM(C6:P6)</f>
-        <v>1</v>
-      </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="10"/>
-    </row>
-    <row r="7" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="2:18">
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="9">
         <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="8">
-        <f>SUM(C7:P7)</f>
-        <v>2</v>
-      </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="10"/>
-    </row>
-    <row r="8" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="2:18">
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="9">
         <v>1</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="8">
-        <f>SUM(C8:P8)</f>
-        <v>1</v>
-      </c>
-      <c r="R8" s="9"/>
-      <c r="S8" s="10"/>
-    </row>
-    <row r="9" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="2:18">
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="9">
         <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="8">
-        <f>SUM(C9:P9)</f>
-        <v>2</v>
-      </c>
-      <c r="R9" s="9"/>
-      <c r="S9" s="10"/>
-    </row>
-    <row r="10" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R9" s="10"/>
+    </row>
+    <row r="10" spans="2:18">
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9">
         <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="8">
-        <f>SUM(C10:P10)</f>
-        <v>2</v>
-      </c>
-      <c r="R10" s="9"/>
-      <c r="S10" s="10"/>
-    </row>
-    <row r="11" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R10" s="10"/>
+    </row>
+    <row r="11" spans="2:18">
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="8">
-        <f>SUM(C11:P11)</f>
-        <v>1</v>
-      </c>
-      <c r="R11" s="9"/>
-      <c r="S11" s="10"/>
-    </row>
-    <row r="12" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="2:18">
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="9">
         <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="8">
-        <f>SUM(C12:P12)</f>
-        <v>2</v>
-      </c>
-      <c r="R12" s="9"/>
-      <c r="S12" s="10"/>
-    </row>
-    <row r="13" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R12" s="10"/>
+    </row>
+    <row r="13" spans="2:18">
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
       </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="8">
-        <f>SUM(C13:P13)</f>
-        <v>1</v>
-      </c>
-      <c r="R13" s="9"/>
-      <c r="S13" s="10"/>
-    </row>
-    <row r="14" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="10"/>
+    </row>
+    <row r="14" spans="2:18">
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="9">
         <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
       </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="8">
-        <f>SUM(C14:P14)</f>
-        <v>2</v>
-      </c>
-      <c r="R14" s="9"/>
-      <c r="S14" s="10"/>
-    </row>
-    <row r="15" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R14" s="10"/>
+    </row>
+    <row r="15" spans="2:18">
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9">
         <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="8">
-        <f>SUM(C15:P15)</f>
-        <v>2</v>
-      </c>
-      <c r="R15" s="9"/>
-      <c r="S15" s="10"/>
-    </row>
-    <row r="16" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="2:18">
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="9">
         <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="8">
-        <f>SUM(C16:P16)</f>
-        <v>2</v>
-      </c>
-      <c r="R16" s="9"/>
-      <c r="S16" s="10"/>
-    </row>
-    <row r="17" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="2:18">
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="P17" s="10"/>
       <c r="Q17" s="8">
-        <f>SUM(C17:P17)</f>
-        <v>1</v>
-      </c>
-      <c r="R17" s="9"/>
-      <c r="S17" s="10"/>
-    </row>
-    <row r="18" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="2:18">
       <c r="B18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="9">
         <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="8">
-        <f>SUM(C18:P18)</f>
-        <v>2</v>
-      </c>
-      <c r="R18" s="9"/>
-      <c r="S18" s="10"/>
-    </row>
-    <row r="19" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="2:18">
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="9">
         <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
       </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="8">
-        <f>SUM(C19:P19)</f>
-        <v>2</v>
-      </c>
-      <c r="R19" s="9"/>
-      <c r="S19" s="10"/>
-    </row>
-    <row r="20" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R19" s="10"/>
+    </row>
+    <row r="20" spans="2:18">
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="9">
         <v>1</v>
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="8">
-        <f>SUM(C20:P20)</f>
-        <v>1</v>
-      </c>
-      <c r="R20" s="9"/>
-      <c r="S20" s="10"/>
-    </row>
-    <row r="21" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="2:18">
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="P21" s="10"/>
       <c r="Q21" s="8">
-        <f>SUM(C21:P21)</f>
-        <v>1</v>
-      </c>
-      <c r="R21" s="9"/>
-      <c r="S21" s="10"/>
-    </row>
-    <row r="22" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="2:18">
       <c r="B22" s="4"/>
       <c r="C22" s="9"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="8">
-        <f>SUM(C22:P22)</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="9"/>
-      <c r="S22" s="10"/>
-    </row>
-    <row r="23" spans="2:19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="2:18">
       <c r="B23" s="4"/>
       <c r="C23" s="9"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="8">
-        <f t="shared" ref="Q23:Q52" si="0">SUM(C23:P23)</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="9"/>
-      <c r="S23" s="10"/>
-    </row>
-    <row r="24" spans="2:19">
+        <f t="shared" ref="Q23:Q52" si="1">SUM(C23:P23)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="2:18">
       <c r="B24" s="4"/>
       <c r="C24" s="9"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="9"/>
-      <c r="S24" s="10"/>
-    </row>
-    <row r="25" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="10"/>
+    </row>
+    <row r="25" spans="2:18">
       <c r="B25" s="4"/>
       <c r="C25" s="9"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="9"/>
-      <c r="S25" s="10"/>
-    </row>
-    <row r="26" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="10"/>
+    </row>
+    <row r="26" spans="2:18">
       <c r="B26" s="4"/>
       <c r="C26" s="9"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="9"/>
-      <c r="S26" s="10"/>
-    </row>
-    <row r="27" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="2:18">
       <c r="B27" s="4"/>
       <c r="C27" s="9"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="9"/>
-      <c r="S27" s="10"/>
-    </row>
-    <row r="28" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="2:18">
       <c r="B28" s="4"/>
       <c r="C28" s="9"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="9"/>
-      <c r="S28" s="10"/>
-    </row>
-    <row r="29" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="2:18">
       <c r="B29" s="4"/>
       <c r="C29" s="9"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="9"/>
-      <c r="S29" s="10"/>
-    </row>
-    <row r="30" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" spans="2:18">
       <c r="B30" s="4"/>
       <c r="C30" s="9"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="9"/>
-      <c r="S30" s="10"/>
-    </row>
-    <row r="31" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="10"/>
+    </row>
+    <row r="31" spans="2:18">
       <c r="B31" s="4"/>
       <c r="C31" s="9"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="9"/>
-      <c r="S31" s="10"/>
-    </row>
-    <row r="32" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="10"/>
+    </row>
+    <row r="32" spans="2:18">
       <c r="B32" s="4"/>
       <c r="C32" s="9"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="9"/>
-      <c r="S32" s="10"/>
-    </row>
-    <row r="33" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="10"/>
+    </row>
+    <row r="33" spans="2:18">
       <c r="B33" s="4"/>
       <c r="C33" s="9"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="9"/>
-      <c r="S33" s="10"/>
-    </row>
-    <row r="34" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="10"/>
+    </row>
+    <row r="34" spans="2:18">
       <c r="B34" s="4"/>
       <c r="C34" s="9"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="9"/>
-      <c r="S34" s="10"/>
-    </row>
-    <row r="35" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="10"/>
+    </row>
+    <row r="35" spans="2:18">
       <c r="B35" s="4"/>
       <c r="C35" s="9"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="9"/>
-      <c r="S35" s="10"/>
-    </row>
-    <row r="36" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="10"/>
+    </row>
+    <row r="36" spans="2:18">
       <c r="B36" s="4"/>
       <c r="C36" s="9"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="9"/>
-      <c r="S36" s="10"/>
-    </row>
-    <row r="37" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="10"/>
+    </row>
+    <row r="37" spans="2:18">
       <c r="B37" s="4"/>
       <c r="C37" s="9"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="9"/>
-      <c r="S37" s="10"/>
-    </row>
-    <row r="38" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="10"/>
+    </row>
+    <row r="38" spans="2:18">
       <c r="B38" s="11"/>
       <c r="C38" s="9"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="9"/>
-      <c r="S38" s="10"/>
-    </row>
-    <row r="39" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="10"/>
+    </row>
+    <row r="39" spans="2:18">
       <c r="B39" s="11"/>
       <c r="C39" s="9"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="9"/>
-      <c r="S39" s="10"/>
-    </row>
-    <row r="40" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="10"/>
+    </row>
+    <row r="40" spans="2:18">
       <c r="B40" s="11"/>
       <c r="C40" s="9"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="9"/>
-      <c r="S40" s="10"/>
-    </row>
-    <row r="41" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="10"/>
+    </row>
+    <row r="41" spans="2:18">
       <c r="B41" s="11"/>
       <c r="C41" s="9"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="9"/>
-      <c r="S41" s="10"/>
-    </row>
-    <row r="42" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="10"/>
+    </row>
+    <row r="42" spans="2:18">
       <c r="B42" s="11"/>
       <c r="C42" s="9"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="9"/>
-      <c r="S42" s="10"/>
-    </row>
-    <row r="43" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="10"/>
+    </row>
+    <row r="43" spans="2:18">
       <c r="B43" s="4"/>
       <c r="C43" s="9"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="9"/>
-      <c r="S43" s="10"/>
-    </row>
-    <row r="44" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="10"/>
+    </row>
+    <row r="44" spans="2:18">
       <c r="B44" s="4"/>
       <c r="C44" s="9"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="9"/>
-      <c r="S44" s="10"/>
-    </row>
-    <row r="45" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="10"/>
+    </row>
+    <row r="45" spans="2:18">
       <c r="B45" s="4"/>
       <c r="C45" s="9"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="9"/>
-      <c r="S45" s="10"/>
-    </row>
-    <row r="46" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="10"/>
+    </row>
+    <row r="46" spans="2:18">
       <c r="B46" s="4"/>
       <c r="C46" s="9"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="9"/>
-      <c r="S46" s="10"/>
-    </row>
-    <row r="47" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="10"/>
+    </row>
+    <row r="47" spans="2:18">
       <c r="B47" s="4"/>
       <c r="C47" s="9"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="9"/>
-      <c r="S47" s="10"/>
-    </row>
-    <row r="48" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="10"/>
+    </row>
+    <row r="48" spans="2:18">
       <c r="B48" s="4"/>
       <c r="C48" s="9"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="9"/>
-      <c r="S48" s="10"/>
-    </row>
-    <row r="49" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="10"/>
+    </row>
+    <row r="49" spans="2:18">
       <c r="B49" s="4"/>
       <c r="C49" s="9"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="9"/>
-      <c r="S49" s="10"/>
-    </row>
-    <row r="50" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="10"/>
+    </row>
+    <row r="50" spans="2:18">
       <c r="B50" s="4"/>
       <c r="C50" s="9"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R50" s="9"/>
-      <c r="S50" s="10"/>
-    </row>
-    <row r="51" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="10"/>
+    </row>
+    <row r="51" spans="2:18">
       <c r="B51" s="4"/>
       <c r="C51" s="9"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R51" s="9"/>
-      <c r="S51" s="10"/>
-    </row>
-    <row r="52" spans="2:19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="10"/>
+    </row>
+    <row r="52" spans="2:18">
       <c r="B52" s="4"/>
       <c r="C52" s="12"/>
       <c r="D52" s="13"/>
@@ -1391,14 +1375,13 @@
       <c r="O52" s="13"/>
       <c r="P52" s="14"/>
       <c r="Q52" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R52" s="12"/>
-      <c r="S52" s="14"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:S22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:R22">
     <sortCondition ref="B3:B22"/>
   </sortState>
   <conditionalFormatting sqref="Q3:Q52">

--- a/ProgramarePentruStiinteAplicate1/Prezenta.xlsx
+++ b/ProgramarePentruStiinteAplicate1/Prezenta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remus\Documents\GitHub\Geoinformatica_Promotia_2025_2028\ProgramarePentruStiinteAplicate1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FFD0BE-69D1-44BF-960D-D037647CAD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775CD025-5F6D-4DDE-9E70-850D414A511F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,14 @@
     <cellStyle name="Default" xfId="1" xr:uid="{C2A1F133-5CCB-48A4-A954-37FCB6A8888E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -673,10 +680,10 @@
   <dimension ref="B2:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -747,7 +754,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -763,7 +770,7 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="8">
         <f t="shared" ref="Q3:Q22" si="0">SUM(C3:P3)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R3" s="7"/>
     </row>
@@ -836,10 +843,13 @@
       <c r="C8" s="9">
         <v>1</v>
       </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" s="10"/>
     </row>
@@ -851,12 +861,12 @@
         <v>2</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9" s="10"/>
     </row>
@@ -902,12 +912,12 @@
         <v>2</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R12" s="10"/>
     </row>
@@ -933,12 +943,12 @@
         <v>2</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R14" s="10"/>
     </row>
@@ -984,12 +994,12 @@
         <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" s="10"/>
       <c r="Q17" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" s="10"/>
     </row>
@@ -1001,12 +1011,12 @@
         <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R18" s="10"/>
     </row>
@@ -1018,12 +1028,12 @@
         <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R19" s="10"/>
     </row>
@@ -1034,10 +1044,13 @@
       <c r="C20" s="9">
         <v>1</v>
       </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" s="10"/>
     </row>
@@ -1049,12 +1062,12 @@
         <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" s="10"/>
       <c r="Q21" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R21" s="10"/>
     </row>
@@ -1385,8 +1398,8 @@
     <sortCondition ref="B3:B22"/>
   </sortState>
   <conditionalFormatting sqref="Q3:Q52">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>4</formula>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
